--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleksandr_Diachenko\IdeaProjects\price-checker-web\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleksandr_Diachenko\IdeaProjects\price-checker-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBCF89E7-A42D-4E74-8BA7-F83A27F9CA16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160740D7-E2CC-4D42-87C9-432852951451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CAC7952-0549-46DF-A710-278B9DE16208}"/>
   </bookViews>
@@ -31,9 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>https://makeup.com.ua/product/672393/#/option/1618475/</t>
+  </si>
+  <si>
+    <t>https://makeup.com.ua/product/707101/#/option/1667911_3/</t>
+  </si>
+  <si>
+    <t>https://makeup.com.ua/product/682209/#/option/1631929/</t>
   </si>
 </sst>
 </file>
@@ -396,9 +402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5572066F-C900-4C6B-B0AC-BFA64FF1C7A4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -410,9 +418,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="/option/1618475/" display="https://makeup.com.ua/product/672393/ - /option/1618475/" xr:uid="{D639A063-FDDB-481F-8333-4BEBA15D2438}"/>
+    <hyperlink ref="A2" r:id="rId2" location="/option/1667911_3/" display="https://makeup.com.ua/product/707101/ - /option/1667911_3/" xr:uid="{A3B6CE87-086D-41B0-9847-9E77B2092F5D}"/>
+    <hyperlink ref="A3" r:id="rId3" location="/option/1631929/" display="https://makeup.com.ua/product/682209/ - /option/1631929/" xr:uid="{7682EC7F-1291-47F7-BD3C-03488C58B3F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleksandr_Diachenko\IdeaProjects\price-checker-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160740D7-E2CC-4D42-87C9-432852951451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4CFD29-BF0B-47AE-85E0-A2299C2DADEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CAC7952-0549-46DF-A710-278B9DE16208}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>https://makeup.com.ua/product/672393/#/option/1618475/</t>
   </si>
@@ -40,6 +40,63 @@
   </si>
   <si>
     <t>https://makeup.com.ua/product/682209/#/option/1631929/</t>
+  </si>
+  <si>
+    <t>sssssssssss</t>
+  </si>
+  <si>
+    <t>dddddddddddddd</t>
+  </si>
+  <si>
+    <t>vfffffffff</t>
+  </si>
+  <si>
+    <t>gggggggggggg</t>
+  </si>
+  <si>
+    <t>llllllllllll</t>
+  </si>
+  <si>
+    <t>…...........</t>
+  </si>
+  <si>
+    <t>jjjjjjjjj</t>
+  </si>
+  <si>
+    <t>gggggggggggggg</t>
+  </si>
+  <si>
+    <t>vvvvvvvvvvvvvvv</t>
+  </si>
+  <si>
+    <t>iiiiiiiii</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>lllllllllllllll</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>kkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>pppppppppppppppppppp</t>
+  </si>
+  <si>
+    <t>iiiiiiiiiiiiiiiiii</t>
+  </si>
+  <si>
+    <t>jjjjjjjj</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>…..............</t>
   </si>
 </sst>
 </file>
@@ -402,30 +459,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5572066F-C900-4C6B-B0AC-BFA64FF1C7A4}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="70.77734375" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>5555555555555</v>
+      </c>
+      <c r="L2">
+        <v>444444444444</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oleksandr_Diachenko\IdeaProjects\price-checker-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4CFD29-BF0B-47AE-85E0-A2299C2DADEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8250C91-CA4D-4FA3-BAC9-03D93122A261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5CAC7952-0549-46DF-A710-278B9DE16208}"/>
   </bookViews>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="21">
   <si>
     <t>https://makeup.com.ua/product/672393/#/option/1618475/</t>
   </si>
   <si>
     <t>https://makeup.com.ua/product/707101/#/option/1667911_3/</t>
-  </si>
-  <si>
-    <t>https://makeup.com.ua/product/682209/#/option/1631929/</t>
   </si>
   <si>
     <t>sssssssssss</t>
@@ -72,9 +69,6 @@
     <t>iiiiiiiii</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>lllllllllllllll</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
   </si>
   <si>
     <t>…..............</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -459,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5572066F-C900-4C6B-B0AC-BFA64FF1C7A4}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,88 +468,2374 @@
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>5555555555555</v>
+      </c>
+      <c r="L2">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>5555555555555</v>
-      </c>
-      <c r="L2">
-        <v>444444444444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>5555555555555</v>
+      </c>
+      <c r="L5">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>5555555555555</v>
+      </c>
+      <c r="L8">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>5555555555555</v>
+      </c>
+      <c r="L11">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <v>5555555555555</v>
+      </c>
+      <c r="L14">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17">
+        <v>5555555555555</v>
+      </c>
+      <c r="L17">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>5555555555555</v>
+      </c>
+      <c r="L20">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>5555555555555</v>
+      </c>
+      <c r="L23">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25">
+        <v>5555555555555</v>
+      </c>
+      <c r="L25">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28">
+        <v>5555555555555</v>
+      </c>
+      <c r="L28">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31">
+        <v>5555555555555</v>
+      </c>
+      <c r="L31">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34">
+        <v>5555555555555</v>
+      </c>
+      <c r="L34">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37">
+        <v>5555555555555</v>
+      </c>
+      <c r="L37">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40">
+        <v>5555555555555</v>
+      </c>
+      <c r="L40">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>5555555555555</v>
+      </c>
+      <c r="L43">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K45" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46">
+        <v>5555555555555</v>
+      </c>
+      <c r="L46">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48">
+        <v>5555555555555</v>
+      </c>
+      <c r="L48">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" t="s">
+        <v>9</v>
+      </c>
+      <c r="K50" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51">
+        <v>5555555555555</v>
+      </c>
+      <c r="L51">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54">
+        <v>5555555555555</v>
+      </c>
+      <c r="L54">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="H55" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57">
+        <v>5555555555555</v>
+      </c>
+      <c r="L57">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="H58" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60">
+        <v>5555555555555</v>
+      </c>
+      <c r="L60">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="H61" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63">
+        <v>5555555555555</v>
+      </c>
+      <c r="L63">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="H64" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66">
+        <v>5555555555555</v>
+      </c>
+      <c r="L66">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="H67" t="s">
+        <v>6</v>
+      </c>
+      <c r="I67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69">
+        <v>5555555555555</v>
+      </c>
+      <c r="L69">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71">
+        <v>5555555555555</v>
+      </c>
+      <c r="L71">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" t="s">
+        <v>10</v>
+      </c>
+      <c r="L73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74">
+        <v>5555555555555</v>
+      </c>
+      <c r="L74">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="H75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77">
+        <v>5555555555555</v>
+      </c>
+      <c r="L77">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="H78" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80">
+        <v>5555555555555</v>
+      </c>
+      <c r="L80">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="H81" t="s">
+        <v>6</v>
+      </c>
+      <c r="I81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83">
+        <v>5555555555555</v>
+      </c>
+      <c r="L83">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="H84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" t="s">
+        <v>7</v>
+      </c>
+      <c r="I85" t="s">
+        <v>8</v>
+      </c>
+      <c r="J85" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86">
+        <v>5555555555555</v>
+      </c>
+      <c r="L86">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="H87" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89">
+        <v>5555555555555</v>
+      </c>
+      <c r="L89">
+        <v>444444444444</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="H90" t="s">
+        <v>6</v>
+      </c>
+      <c r="I90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s">
+        <v>19</v>
+      </c>
+      <c r="K92">
+        <v>5555555555555</v>
+      </c>
+      <c r="L92">
+        <v>444444444444</v>
       </c>
     </row>
   </sheetData>
